--- a/Git_Bitbucket사용법_v1.0.xlsx
+++ b/Git_Bitbucket사용법_v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\91. git_bitbucket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생성된 repository master URL복사해 놓을 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bitbucket repository 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>git push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 repository master URL복사해 놓을 것.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -970,92 +970,92 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
